--- a/raw/Labbook.xlsx
+++ b/raw/Labbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snekz/Desktop/Thesis/Rawdata/ABSsecondround/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snekz/Desktop/Thesis/ABS_second_round/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D7AA44-B1F9-414C-9B1A-8ED0D4B2D5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04577D3D-1F64-EF41-9D25-D7F9A2332BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="760" windowWidth="20420" windowHeight="18880" activeTab="2" xr2:uid="{E68C0344-DB4F-8849-856A-D4D7A651933D}"/>
+    <workbookView xWindow="9820" yWindow="760" windowWidth="20420" windowHeight="18880" activeTab="3" xr2:uid="{E68C0344-DB4F-8849-856A-D4D7A651933D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="98">
   <si>
     <t>Harvest date</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>total_W</t>
+  </si>
+  <si>
+    <t>New_tube</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
   <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5044,6 +5047,73 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A122:A145"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="A50:A73"/>
+    <mergeCell ref="A74:A97"/>
+    <mergeCell ref="A98:A121"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
     <mergeCell ref="I66:I67"/>
     <mergeCell ref="I68:I69"/>
     <mergeCell ref="I70:I71"/>
@@ -5053,73 +5123,6 @@
     <mergeCell ref="I60:I61"/>
     <mergeCell ref="I62:I63"/>
     <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A122:A145"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="A50:A73"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A98:A121"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="I144:I145"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8046,7 +8049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E71E6A-D131-9C45-A84B-AB9D69CAB7F3}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -8523,8 +8526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42BF2A1-BEFF-8840-AF7D-96943EA92104}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8539,6 +8542,12 @@
       <c r="B1" t="s">
         <v>53</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -9250,6 +9259,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D34"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="D41:D43"/>
@@ -9262,18 +9283,6 @@
     <mergeCell ref="D62:D64"/>
     <mergeCell ref="D65:D67"/>
     <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw/Labbook.xlsx
+++ b/raw/Labbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snekz/Desktop/Thesis/ABS_second_round/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04577D3D-1F64-EF41-9D25-D7F9A2332BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D371B0DC-8EA0-3F47-86EF-3027B878D216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="760" windowWidth="20420" windowHeight="18880" activeTab="3" xr2:uid="{E68C0344-DB4F-8849-856A-D4D7A651933D}"/>
+    <workbookView xWindow="3120" yWindow="760" windowWidth="27120" windowHeight="18880" activeTab="6" xr2:uid="{E68C0344-DB4F-8849-856A-D4D7A651933D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Indiv weights" sheetId="4" r:id="rId4"/>
     <sheet name="Adams soil" sheetId="5" r:id="rId5"/>
     <sheet name="DNA quality" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="101">
   <si>
     <t>Harvest date</t>
   </si>
@@ -335,6 +336,15 @@
   </si>
   <si>
     <t>New_tube</t>
+  </si>
+  <si>
+    <t>Dillution_ID</t>
+  </si>
+  <si>
+    <t>0.5x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"unknown" </t>
   </si>
 </sst>
 </file>
@@ -938,7 +948,7 @@
   <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5047,59 +5057,20 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="I144:I145"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A122:A145"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="A50:A73"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A98:A121"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="I42:I43"/>
@@ -5109,20 +5080,59 @@
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A122:A145"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="A50:A73"/>
+    <mergeCell ref="A74:A97"/>
+    <mergeCell ref="A98:A121"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="I142:I143"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8526,7 +8536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42BF2A1-BEFF-8840-AF7D-96943EA92104}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -9259,6 +9269,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
@@ -9271,18 +9293,6 @@
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9673,4 +9683,2067 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B33A6D4-92A3-6049-9D76-216507FEEC1E}">
+  <dimension ref="A1:E145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>1015</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>1016</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>1025</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53">
+        <v>1052</v>
+      </c>
+      <c r="E53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54">
+        <v>1053</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145">
+        <v>1144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>